--- a/python/user_credentials.xlsx
+++ b/python/user_credentials.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>i@ws[~VZvn`\</t>
+          <t>ffS4&lt;0R|&gt;}H"</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>i0,?%3h@@w@B</t>
+          <t>"e_d~'o#_0'3</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>h*/l7jCIll,o</t>
+          <t>yr7B^3VIgI\s</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pOf:7xJ06|q#</t>
+          <t>g.KeQr\4x'bj</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8K`7f\!qLEpC</t>
+          <t>HgF)THvy,K?=</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%;ls=jr=|kv'</t>
+          <t>*~O;YzroWl(t</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tKcVvZ.3K}H*</t>
+          <t>ss&gt;=L^@xr1uD</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>T+0[;},KO_{m</t>
+          <t>)PNkh/&lt;H:)G]</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>wc'bYQ?*@L{{</t>
+          <t>&gt;wZsr1*RyuB"</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ly1xLQdPf6v'</t>
+          <t>Vti&amp;Mafd$1$J</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C22+Lq&amp;pdc#d</t>
+          <t>5,V![@CScqw{</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SRe5Ojw8eaG[</t>
+          <t>&lt;F?GM-6%W4**</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>krTw#M5?#Las</t>
+          <t>B:_K,zWRM4P\</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>_R1[`2B9XD@o</t>
+          <t>0Tey}n)rO@&amp;~</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>_Z]#D5JD&lt;LGC</t>
+          <t>%eT=Vqq6vxLA</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kg;Gu/N?HB0C</t>
+          <t>mFcYh&gt;wBL_O4</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aqzt&gt;^aS3~/o</t>
+          <t>_uutL8Owb&lt;kc</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0(TNBsj&gt;R3\_</t>
+          <t>orL+G$nJ7?^v</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>:"j3h&lt;S#kXc2</t>
+          <t>G=*&amp;N.-=yywg</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ordiC)ksvb?g</t>
+          <t>CGZ~6(d'O;/V</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>%{OR"P)+AU{e</t>
+          <t>{WF?ib|bXvUF</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$}NwWIrRQvFR</t>
+          <t>pi"%N{g?g/g%</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-FG54y&lt;!~c\Z</t>
+          <t>S}/5'-XL8+7(</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ACPjtfXaQK)Z</t>
+          <t>'y7z06d&amp;DNja</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>@TuE0Y/;#9`y</t>
+          <t>My_&gt;!S~q73W@</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{V&lt;s2&lt;xF')tU</t>
+          <t>vYGZ0k,UNRQl</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8yu+}5rTR#s~</t>
+          <t>l3L!@ua&lt;+7'l</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>~O&lt;guRY'5`\6</t>
+          <t>A@FAe,t@w#=f</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~H&amp;~`T3\`Vcv</t>
+          <t>hSkItkiU//v$</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>(Jk-=:=?diVS</t>
+          <t>(qqmw[/~)VSP</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>/V=mC8$iUJQ0</t>
+          <t>mcp/R&gt;IdKXI~</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>y'Yv29U/fU`t</t>
+          <t>C]Q~O_`!b#*c</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>65Il%]!aRCky</t>
+          <t>V&lt;to?UF.3A7i</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>L"0L&lt;qBB59W"</t>
+          <t>UomZ]oGnCIPv</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CIFD,oDqx}Wz</t>
+          <t>YW||D*OK+2CA</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>@e;Zqd,Yavlh</t>
+          <t>/A/6/Pm}tEY-</t>
         </is>
       </c>
     </row>
@@ -871,9 +871,10 @@
           <t>pinsky3</t>
         </is>
       </c>
-      <c r="B38">
-        <f>G=&gt;VNgKI=zo</f>
-        <v/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>uOqh&gt;3sJZ]`e</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -884,7 +885,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6A~]&lt;$ErK4wo</t>
+          <t>!S`vG)q'CGij</t>
         </is>
       </c>
     </row>
@@ -896,7 +897,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>K1rgPZ"w$"0#</t>
+          <t>c&gt;,mZ$MG&lt;s"{</t>
         </is>
       </c>
     </row>
